--- a/omade/文档/任务BUG及状态记录.xlsx
+++ b/omade/文档/任务BUG及状态记录.xlsx
@@ -11,29 +11,20 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="status">Sheet2!$A$1:$A$3</definedName>
+  </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>ID</t>
   </si>
   <si>
-    <t>任务BUG描述</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改时间</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>状态</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用时间</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -84,6 +75,50 @@
       </rPr>
       <t>】</t>
     </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务描述</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题描述（BUG情况描述）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2013-01-1516:16</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>待完成</t>
+  </si>
+  <si>
+    <t>待完成</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>进行中</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>新建时间</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始时间</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成时间</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>对新玩家送分，需要保证玩家在一天内收到送分
+不能发生玩家不能接受送分的情况</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -174,7 +209,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -206,24 +241,44 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -526,7 +581,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
@@ -535,108 +590,127 @@
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9.75" customWidth="1"/>
-    <col min="2" max="2" width="55.75" customWidth="1"/>
-    <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="11.875" customWidth="1"/>
-    <col min="5" max="5" width="14.125" customWidth="1"/>
+    <col min="2" max="2" width="44.25" customWidth="1"/>
+    <col min="3" max="3" width="39.75" customWidth="1"/>
+    <col min="4" max="4" width="15.625" customWidth="1"/>
+    <col min="5" max="5" width="11.875" customWidth="1"/>
+    <col min="6" max="6" width="14.125" customWidth="1"/>
+    <col min="7" max="7" width="11.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="7"/>
       <c r="H1" s="2"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="F2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B3" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" s="5"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>14</v>
       </c>
@@ -673,21 +747,44 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A1:F1"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E6">
+      <formula1>status</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/omade/文档/任务BUG及状态记录.xlsx
+++ b/omade/文档/任务BUG及状态记录.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>ID</t>
   </si>
@@ -121,12 +121,17 @@
 不能发生玩家不能接受送分的情况</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>游戏开始，需要在服务器端检验用户分数
+用户坐下之前，检验用户分数是否够</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -190,6 +195,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FFC00000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -259,24 +270,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -584,7 +599,7 @@
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -599,15 +614,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="7"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="5"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
     </row>
@@ -627,7 +642,7 @@
       <c r="E2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="4" t="s">
         <v>11</v>
       </c>
       <c r="G2" s="1" t="s">
@@ -638,7 +653,7 @@
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D3" t="s">
@@ -648,17 +663,20 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" s="3"/>
+      <c r="B4" s="10" t="s">
+        <v>14</v>
+      </c>
       <c r="C4" s="3"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>3</v>
       </c>
+      <c r="B5" s="9"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6">
